--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_7.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_7.xlsx
@@ -1175,7 +1175,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>1427602156</v>
+        <v>14227602159</v>
       </c>
       <c r="D12" s="1">
         <v>1398800851.3300049</v>
@@ -1319,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>-517866608.80000001</v>
+        <v>-51786608.799999997</v>
       </c>
       <c r="D16" s="1">
         <v>-50601311.959999993</v>
@@ -1391,7 +1391,8 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>1515501800</v>
+        <f>SUM(C12:C17)</f>
+        <v>14315501803.18</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D12:D17)</f>
@@ -1505,7 +1506,8 @@
         <v>22</v>
       </c>
       <c r="C21" s="33">
-        <v>1124090364</v>
+        <f>SUM(C18:C20)</f>
+        <v>13924090367.460001</v>
       </c>
       <c r="D21" s="33">
         <f>SUM(D18:D20)</f>
@@ -1584,7 +1586,7 @@
       </c>
       <c r="C23" s="33">
         <f>SUM(C21:C22)</f>
-        <v>1090714269</v>
+        <v>13890714272.460001</v>
       </c>
       <c r="D23" s="33">
         <f>SUM(D21:D22)</f>
@@ -1632,7 +1634,7 @@
       </c>
       <c r="C25" s="5">
         <f>C23/C26</f>
-        <v>1.0870526181329758</v>
+        <v>13.844081577349145</v>
       </c>
       <c r="D25" s="5">
         <f>D23/D26</f>
@@ -1727,7 +1729,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="16">
         <f>(D25-C25)/C25</f>
-        <v>-3.023013147437157E-2</v>
+        <v>-0.92385259587807833</v>
       </c>
       <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>1.0199816896062512</v>
+        <v>3.5713874814494853</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
